--- a/results/ZIM/fullAnalysis/accuracies.xlsx
+++ b/results/ZIM/fullAnalysis/accuracies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaime\Desktop\Trabajo\IRNAS\results\ZIM\fullAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC31C2A5-F776-41FB-86A1-CAEB4A7CCEB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A435236-ED9B-4004-8F9E-8F6EBE5ED596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{85BED29D-13A8-41A1-8035-372A80CA8583}"/>
+    <workbookView minimized="1" xWindow="7200" yWindow="570" windowWidth="21600" windowHeight="11385" xr2:uid="{85BED29D-13A8-41A1-8035-372A80CA8583}"/>
   </bookViews>
   <sheets>
     <sheet name="accuracies" sheetId="1" r:id="rId1"/>
@@ -273,7 +273,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -451,6 +451,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -614,9 +620,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -665,54 +672,126 @@
   <dxfs count="24">
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -753,30 +832,30 @@
   <autoFilter ref="A1:Y13" xr:uid="{FF68B520-9850-461A-AB19-43342612EC1D}"/>
   <tableColumns count="25">
     <tableColumn id="1" xr3:uid="{85FEF8C0-2D5F-414F-987A-B51D8AC1356F}" name="Clasificador"/>
-    <tableColumn id="2" xr3:uid="{126A162A-7B34-48EE-BD43-6CE2645A9774}" name="rawTrain2014" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{80A3B487-D7D0-4B6A-BAA3-21A859761761}" name="rawTrain2015" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{C1E554A1-EF43-49B3-B31F-0D7256F0D910}" name="rawTrain2016" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{470D0861-9C86-4456-BB19-92DBB1D286BC}" name="rawTrain2019" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{63F39E81-7ED4-4C39-A2A9-665BFA2CC6FD}" name="raw13PCATrain2014" dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{D13CC8FC-B7EF-40DD-80DE-71F44BFA36B4}" name="raw13PCATrain2015" dataDxfId="18"/>
-    <tableColumn id="8" xr3:uid="{D61FB200-C7B1-4186-8984-A1DEBA802882}" name="raw13PCATrain2016" dataDxfId="17"/>
-    <tableColumn id="9" xr3:uid="{08193005-3F76-4F76-ABE2-1244D71640F0}" name="raw13PCATrain2019" dataDxfId="16"/>
-    <tableColumn id="10" xr3:uid="{6672FAAE-5550-4539-B000-E4E04F05155C}" name="raw15PCATrain2014" dataDxfId="15"/>
-    <tableColumn id="11" xr3:uid="{F78E8887-F637-48AB-83C3-AFE932CCFD2B}" name="raw15PCATrain2015" dataDxfId="14"/>
-    <tableColumn id="12" xr3:uid="{88CEB86E-C6B3-4DC6-AB57-B52AE1B9769E}" name="raw15PCATrain2016" dataDxfId="13"/>
-    <tableColumn id="13" xr3:uid="{6DD667BA-CC17-468F-B11D-19BF99CAF33C}" name="raw15PCATrain2019" dataDxfId="12"/>
-    <tableColumn id="14" xr3:uid="{569490A2-FD3F-424F-AF17-B31C46FEEEA2}" name="80ZIM4MeteoTrain2014" dataDxfId="11"/>
-    <tableColumn id="15" xr3:uid="{C51AACEB-E311-4350-82CA-286BE7766290}" name="80ZIM4MeteoTrain2015" dataDxfId="10"/>
-    <tableColumn id="16" xr3:uid="{4DB93C24-0C48-4058-82AB-A6BA32FD2E75}" name="80ZIM4MeteoTrain2016" dataDxfId="9"/>
-    <tableColumn id="17" xr3:uid="{9FE78D32-D5DE-4863-999A-7EF8E88884D3}" name="80ZIM4MeteoTrain2019" dataDxfId="8"/>
-    <tableColumn id="18" xr3:uid="{9D9FA844-6FBD-4B1A-AA5A-FF2948787352}" name="80ZIM4Meteo13PCATrain2014" dataDxfId="7"/>
-    <tableColumn id="19" xr3:uid="{BB24837A-77B7-440D-8CE5-ECAA4BC9A179}" name="80ZIM4Meteo13PCATrain2015" dataDxfId="6"/>
-    <tableColumn id="20" xr3:uid="{71E69414-04B3-4EB9-B15B-876442BB294A}" name="80ZIM4Meteo13PCATrain2016" dataDxfId="5"/>
-    <tableColumn id="21" xr3:uid="{980213A1-0B6B-4CCD-8AF4-A417B2FB7679}" name="80ZIM4Meteo13PCATrain2019" dataDxfId="4"/>
-    <tableColumn id="22" xr3:uid="{451ACF66-2C7E-4F23-8E19-DB06A8ADE880}" name="80ZIM4Meteo15PCATrain2014" dataDxfId="3"/>
-    <tableColumn id="23" xr3:uid="{F8668924-24DE-4D78-8FB8-C786F043F398}" name="80ZIM4Meteo15PCATrain2015" dataDxfId="2"/>
-    <tableColumn id="24" xr3:uid="{EC47C32F-8925-49AE-BB5A-695252E474BB}" name="80ZIM4Meteo15PCATrain2016" dataDxfId="1"/>
-    <tableColumn id="25" xr3:uid="{573D9C1B-387F-4537-8EAF-EB635AC62AFA}" name="80ZIM4Meteo15PCATrain2019" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{126A162A-7B34-48EE-BD43-6CE2645A9774}" name="rawTrain2014" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{80A3B487-D7D0-4B6A-BAA3-21A859761761}" name="rawTrain2015" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{C1E554A1-EF43-49B3-B31F-0D7256F0D910}" name="rawTrain2016" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{470D0861-9C86-4456-BB19-92DBB1D286BC}" name="rawTrain2019" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{63F39E81-7ED4-4C39-A2A9-665BFA2CC6FD}" name="raw13PCATrain2014" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{D13CC8FC-B7EF-40DD-80DE-71F44BFA36B4}" name="raw13PCATrain2015" dataDxfId="23"/>
+    <tableColumn id="8" xr3:uid="{D61FB200-C7B1-4186-8984-A1DEBA802882}" name="raw13PCATrain2016" dataDxfId="22"/>
+    <tableColumn id="9" xr3:uid="{08193005-3F76-4F76-ABE2-1244D71640F0}" name="raw13PCATrain2019" dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{6672FAAE-5550-4539-B000-E4E04F05155C}" name="raw15PCATrain2014" dataDxfId="10"/>
+    <tableColumn id="11" xr3:uid="{F78E8887-F637-48AB-83C3-AFE932CCFD2B}" name="raw15PCATrain2015" dataDxfId="9"/>
+    <tableColumn id="12" xr3:uid="{88CEB86E-C6B3-4DC6-AB57-B52AE1B9769E}" name="raw15PCATrain2016" dataDxfId="8"/>
+    <tableColumn id="13" xr3:uid="{6DD667BA-CC17-468F-B11D-19BF99CAF33C}" name="raw15PCATrain2019" dataDxfId="6"/>
+    <tableColumn id="14" xr3:uid="{569490A2-FD3F-424F-AF17-B31C46FEEEA2}" name="80ZIM4MeteoTrain2014" dataDxfId="7"/>
+    <tableColumn id="15" xr3:uid="{C51AACEB-E311-4350-82CA-286BE7766290}" name="80ZIM4MeteoTrain2015" dataDxfId="21"/>
+    <tableColumn id="16" xr3:uid="{4DB93C24-0C48-4058-82AB-A6BA32FD2E75}" name="80ZIM4MeteoTrain2016" dataDxfId="20"/>
+    <tableColumn id="17" xr3:uid="{9FE78D32-D5DE-4863-999A-7EF8E88884D3}" name="80ZIM4MeteoTrain2019" dataDxfId="5"/>
+    <tableColumn id="18" xr3:uid="{9D9FA844-6FBD-4B1A-AA5A-FF2948787352}" name="80ZIM4Meteo13PCATrain2014" dataDxfId="4"/>
+    <tableColumn id="19" xr3:uid="{BB24837A-77B7-440D-8CE5-ECAA4BC9A179}" name="80ZIM4Meteo13PCATrain2015" dataDxfId="3"/>
+    <tableColumn id="20" xr3:uid="{71E69414-04B3-4EB9-B15B-876442BB294A}" name="80ZIM4Meteo13PCATrain2016" dataDxfId="2"/>
+    <tableColumn id="21" xr3:uid="{980213A1-0B6B-4CCD-8AF4-A417B2FB7679}" name="80ZIM4Meteo13PCATrain2019" dataDxfId="0"/>
+    <tableColumn id="22" xr3:uid="{451ACF66-2C7E-4F23-8E19-DB06A8ADE880}" name="80ZIM4Meteo15PCATrain2014" dataDxfId="1"/>
+    <tableColumn id="23" xr3:uid="{F8668924-24DE-4D78-8FB8-C786F043F398}" name="80ZIM4Meteo15PCATrain2015" dataDxfId="19"/>
+    <tableColumn id="24" xr3:uid="{EC47C32F-8925-49AE-BB5A-695252E474BB}" name="80ZIM4Meteo15PCATrain2016" dataDxfId="18"/>
+    <tableColumn id="25" xr3:uid="{573D9C1B-387F-4537-8EAF-EB635AC62AFA}" name="80ZIM4Meteo15PCATrain2019" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1101,8 +1180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA991EF-531D-496F-9644-4D475A5D91E8}">
   <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2:U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1195,16 +1274,16 @@
       <c r="A2" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>0.40461805059723999</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>0.41755495813906801</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>0.44702593937694801</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>0.45401765547300399</v>
       </c>
       <c r="F2" s="1">
@@ -1219,16 +1298,16 @@
       <c r="I2" s="1">
         <v>0.53069532991198498</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="2">
         <v>0.62543062094763902</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="2">
         <v>0.65019536145786305</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="2">
         <v>0.53419594551024796</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2" s="2">
         <v>0.51960046249811598</v>
       </c>
       <c r="N2" s="1">
@@ -1243,16 +1322,16 @@
       <c r="Q2" s="1">
         <v>0.59219478406731596</v>
       </c>
-      <c r="R2" s="1">
+      <c r="R2" s="2">
         <v>0.69203209703487401</v>
       </c>
-      <c r="S2" s="1">
+      <c r="S2" s="2">
         <v>0.63282197824234199</v>
       </c>
-      <c r="T2" s="1">
+      <c r="T2" s="2">
         <v>0.64716125866850205</v>
       </c>
-      <c r="U2" s="1">
+      <c r="U2" s="2">
         <v>0.58311251099366102</v>
       </c>
       <c r="V2" s="1">
@@ -1272,16 +1351,16 @@
       <c r="A3" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>0.59565851004473203</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>0.50471812803930405</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>0.47551722025992699</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>0.52538252046589895</v>
       </c>
       <c r="F3" s="1">
@@ -1296,16 +1375,16 @@
       <c r="I3" s="1">
         <v>0.53021868172952002</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="2">
         <v>0.59489591770830896</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="2">
         <v>0.50638504537023099</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="2">
         <v>0.47777150185911899</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3" s="2">
         <v>0.52813135165546399</v>
       </c>
       <c r="N3" s="1">
@@ -1320,16 +1399,16 @@
       <c r="Q3" s="1">
         <v>0.53317697119403595</v>
       </c>
-      <c r="R3" s="1">
+      <c r="R3" s="2">
         <v>0.65901176402131301</v>
       </c>
-      <c r="S3" s="1">
+      <c r="S3" s="2">
         <v>0.53240415225347104</v>
       </c>
-      <c r="T3" s="1">
+      <c r="T3" s="2">
         <v>0.61903479267970096</v>
       </c>
-      <c r="U3" s="1">
+      <c r="U3" s="2">
         <v>0.53799916045347096</v>
       </c>
       <c r="V3" s="1">
@@ -1349,16 +1428,16 @@
       <c r="A4" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>0.51600415368311903</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>0.55268962751290895</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>0.61123091184207301</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>0.51196478950795599</v>
       </c>
       <c r="F4" s="1">
@@ -1373,16 +1452,16 @@
       <c r="I4" s="1">
         <v>0.602696452342253</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="2">
         <v>0.60241717959662</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="2">
         <v>0.670145259938837</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="2">
         <v>0.60264681914134699</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4" s="2">
         <v>0.60241960339968403</v>
       </c>
       <c r="N4" s="1">
@@ -1397,16 +1476,16 @@
       <c r="Q4" s="1">
         <v>0.57536331494454596</v>
       </c>
-      <c r="R4" s="1">
+      <c r="R4" s="2">
         <v>0.68618770394028905</v>
       </c>
-      <c r="S4" s="1">
+      <c r="S4" s="2">
         <v>0.63126801649370801</v>
       </c>
-      <c r="T4" s="1">
+      <c r="T4" s="2">
         <v>0.65574106753575701</v>
       </c>
-      <c r="U4" s="1">
+      <c r="U4" s="2">
         <v>0.57628514385310003</v>
       </c>
       <c r="V4" s="1">
@@ -1426,16 +1505,16 @@
       <c r="A5" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="1">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="B5" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="E5" s="2">
         <v>0.33333333333333298</v>
       </c>
       <c r="F5" s="1">
@@ -1450,16 +1529,16 @@
       <c r="I5" s="1">
         <v>0.33333333333333298</v>
       </c>
-      <c r="J5" s="1">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="L5" s="1">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="M5" s="1">
+      <c r="J5" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="M5" s="2">
         <v>0.33333333333333298</v>
       </c>
       <c r="N5" s="1">
@@ -1474,16 +1553,16 @@
       <c r="Q5" s="1">
         <v>0.33333333333333298</v>
       </c>
-      <c r="R5" s="1">
+      <c r="R5" s="2">
         <v>0.34753212361686198</v>
       </c>
-      <c r="S5" s="1">
+      <c r="S5" s="2">
         <v>0.33695026194415201</v>
       </c>
-      <c r="T5" s="1">
+      <c r="T5" s="2">
         <v>0.33457031443794999</v>
       </c>
-      <c r="U5" s="1">
+      <c r="U5" s="2">
         <v>0.33333333333333298</v>
       </c>
       <c r="V5" s="1">
@@ -1503,16 +1582,16 @@
       <c r="A6" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="1">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="B6" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="E6" s="2">
         <v>0.33333333333333298</v>
       </c>
       <c r="F6" s="1">
@@ -1527,16 +1606,16 @@
       <c r="I6" s="1">
         <v>0.33333333333333298</v>
       </c>
-      <c r="J6" s="1">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="L6" s="1">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="M6" s="1">
+      <c r="J6" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="M6" s="2">
         <v>0.33333333333333298</v>
       </c>
       <c r="N6" s="1">
@@ -1551,16 +1630,16 @@
       <c r="Q6" s="1">
         <v>0.55892349449576095</v>
       </c>
-      <c r="R6" s="1">
+      <c r="R6" s="2">
         <v>0.68384020915464305</v>
       </c>
-      <c r="S6" s="1">
+      <c r="S6" s="2">
         <v>0.55240778688524494</v>
       </c>
-      <c r="T6" s="1">
+      <c r="T6" s="2">
         <v>0.58953802189846405</v>
       </c>
-      <c r="U6" s="1">
+      <c r="U6" s="2">
         <v>0.56247359303807598</v>
       </c>
       <c r="V6" s="1">
@@ -1580,16 +1659,16 @@
       <c r="A7" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>0.54328185535054796</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2">
         <v>0.46911502982904602</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>0.51214845619320803</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <v>0.52830554185372403</v>
       </c>
       <c r="F7" s="1">
@@ -1604,16 +1683,16 @@
       <c r="I7" s="1">
         <v>0.62603953894922704</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="2">
         <v>0.60768734499001598</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="2">
         <v>0.56778321928109399</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="2">
         <v>0.46453925045850702</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="2">
         <v>0.59169915378117699</v>
       </c>
       <c r="N7" s="1">
@@ -1628,16 +1707,16 @@
       <c r="Q7" s="1">
         <v>0.54304373429650798</v>
       </c>
-      <c r="R7" s="1">
+      <c r="R7" s="2">
         <v>0.56347772356694603</v>
       </c>
-      <c r="S7" s="1">
+      <c r="S7" s="2">
         <v>0.56433721236276102</v>
       </c>
-      <c r="T7" s="1">
+      <c r="T7" s="2">
         <v>0.55316178694345697</v>
       </c>
-      <c r="U7" s="1">
+      <c r="U7" s="2">
         <v>0.58300217961585399</v>
       </c>
       <c r="V7" s="1">
@@ -1657,16 +1736,16 @@
       <c r="A8" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>0.53168331366293797</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <v>0.462608568957738</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <v>0.41115142605971999</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <v>0.55456038657373297</v>
       </c>
       <c r="F8" s="1">
@@ -1681,16 +1760,16 @@
       <c r="I8" s="1">
         <v>0.42892739640995597</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="2">
         <v>0.40905242041497197</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="2">
         <v>0.421150893618087</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="2">
         <v>0.39122229092775601</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="2">
         <v>0.431480917711135</v>
       </c>
       <c r="N8" s="1">
@@ -1705,16 +1784,16 @@
       <c r="Q8" s="1">
         <v>0.56875556066448496</v>
       </c>
-      <c r="R8" s="1">
+      <c r="R8" s="2">
         <v>0.39996675348270699</v>
       </c>
-      <c r="S8" s="1">
+      <c r="S8" s="2">
         <v>0.37309651827342399</v>
       </c>
-      <c r="T8" s="1">
+      <c r="T8" s="2">
         <v>0.47608026141130499</v>
       </c>
-      <c r="U8" s="1">
+      <c r="U8" s="2">
         <v>0.41546190362345797</v>
       </c>
       <c r="V8" s="1">
@@ -1734,16 +1813,16 @@
       <c r="A9" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <v>0.64893298679998301</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2">
         <v>0.63242953200982599</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="2">
         <v>0.698281278511242</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="2">
         <v>0.56783097683114903</v>
       </c>
       <c r="F9" s="1">
@@ -1758,16 +1837,16 @@
       <c r="I9" s="1">
         <v>0.45349890649644098</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="2">
         <v>0.61473077885198701</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="2">
         <v>0.49417001930114801</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9" s="2">
         <v>0.50147969355032795</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9" s="2">
         <v>0.54193488967097403</v>
       </c>
       <c r="N9" s="1">
@@ -1782,16 +1861,16 @@
       <c r="Q9" s="1">
         <v>0.59612172776249905</v>
       </c>
-      <c r="R9" s="1">
+      <c r="R9" s="2">
         <v>0.67986925592536396</v>
       </c>
-      <c r="S9" s="1">
+      <c r="S9" s="2">
         <v>0.56340489797964599</v>
       </c>
-      <c r="T9" s="1">
+      <c r="T9" s="2">
         <v>0.59792790828428</v>
       </c>
-      <c r="U9" s="1">
+      <c r="U9" s="2">
         <v>0.59462396838985798</v>
       </c>
       <c r="V9" s="1">
@@ -1811,16 +1890,16 @@
       <c r="A10" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <v>0.48962122763277199</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2">
         <v>0.45160315460971501</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2">
         <v>0.41560500313279802</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="2">
         <v>0.54967745458254502</v>
       </c>
       <c r="F10" s="1">
@@ -1835,16 +1914,16 @@
       <c r="I10" s="1">
         <v>0.63368457280422896</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="2">
         <v>0.61873728869170297</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="2">
         <v>0.61883099588910595</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="2">
         <v>0.55032191615771398</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10" s="2">
         <v>0.64703984760159206</v>
       </c>
       <c r="N10" s="1">
@@ -1859,16 +1938,16 @@
       <c r="Q10" s="1">
         <v>0.606481093253599</v>
       </c>
-      <c r="R10" s="1">
+      <c r="R10" s="2">
         <v>0.62286746118091896</v>
       </c>
-      <c r="S10" s="1">
+      <c r="S10" s="2">
         <v>0.52462745024314394</v>
       </c>
-      <c r="T10" s="1">
+      <c r="T10" s="2">
         <v>0.56273338389253702</v>
       </c>
-      <c r="U10" s="1">
+      <c r="U10" s="2">
         <v>0.58607645729305502</v>
       </c>
       <c r="V10" s="1">
@@ -1888,16 +1967,16 @@
       <c r="A11" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="2">
         <v>0.54516868794280404</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="2">
         <v>0.64606880107284304</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="2">
         <v>0.36526598389456799</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="2">
         <v>0.42386626362117102</v>
       </c>
       <c r="F11" s="1">
@@ -1912,16 +1991,16 @@
       <c r="I11" s="1">
         <v>0.45651290339574002</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="2">
         <v>0.44661123522728902</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="2">
         <v>0.60490988619842501</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11" s="2">
         <v>0.42004698658675099</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M11" s="2">
         <v>0.45949324905682398</v>
       </c>
       <c r="N11" s="1">
@@ -1936,16 +2015,16 @@
       <c r="Q11" s="1">
         <v>0.55340202049542997</v>
       </c>
-      <c r="R11" s="1">
+      <c r="R11" s="2">
         <v>0.53961155057092103</v>
       </c>
-      <c r="S11" s="1">
+      <c r="S11" s="2">
         <v>0.58397863713841602</v>
       </c>
-      <c r="T11" s="1">
+      <c r="T11" s="2">
         <v>0.56793584894577998</v>
       </c>
-      <c r="U11" s="1">
+      <c r="U11" s="2">
         <v>0.57700572046692</v>
       </c>
       <c r="V11" s="1">
@@ -1965,16 +2044,16 @@
       <c r="A12" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="2">
         <v>0.330781516414623</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="2">
         <v>0.33674816388429302</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="2">
         <v>0.33712334430862601</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="2">
         <v>0.34649955141761302</v>
       </c>
       <c r="F12" s="1">
@@ -1989,16 +2068,16 @@
       <c r="I12" s="1">
         <v>0.53430532707038103</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="2">
         <v>0.48131195407872501</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="2">
         <v>0.58417775856018395</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L12" s="2">
         <v>0.366040366694737</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M12" s="2">
         <v>0.54102100636864703</v>
       </c>
       <c r="N12" s="1">
@@ -2013,16 +2092,16 @@
       <c r="Q12" s="1">
         <v>0.33682983682983603</v>
       </c>
-      <c r="R12" s="1">
+      <c r="R12" s="2">
         <v>0.53814485457756001</v>
       </c>
-      <c r="S12" s="1">
+      <c r="S12" s="2">
         <v>0.53127757306863099</v>
       </c>
-      <c r="T12" s="1">
+      <c r="T12" s="2">
         <v>0.55459581852346695</v>
       </c>
-      <c r="U12" s="1">
+      <c r="U12" s="2">
         <v>0.500553214933385</v>
       </c>
       <c r="V12" s="1">
@@ -2042,16 +2121,16 @@
       <c r="A13" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="2">
         <v>0.64893298679998301</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="2">
         <v>0.64606880107284304</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="2">
         <v>0.698281278511242</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="2">
         <v>0.56783097683114903</v>
       </c>
       <c r="F13" s="1">
@@ -2066,16 +2145,16 @@
       <c r="I13" s="1">
         <v>0.63368457280422896</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="2">
         <v>0.62543062094763902</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="2">
         <v>0.670145259938837</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13" s="2">
         <v>0.60264681914134699</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13" s="2">
         <v>0.64703984760159206</v>
       </c>
       <c r="N13" s="1">
@@ -2090,16 +2169,16 @@
       <c r="Q13" s="1">
         <v>0.606481093253599</v>
       </c>
-      <c r="R13" s="1">
+      <c r="R13" s="2">
         <v>0.69203209703487401</v>
       </c>
-      <c r="S13" s="1">
+      <c r="S13" s="2">
         <v>0.63282197824234199</v>
       </c>
-      <c r="T13" s="1">
+      <c r="T13" s="2">
         <v>0.65574106753575701</v>
       </c>
-      <c r="U13" s="1">
+      <c r="U13" s="2">
         <v>0.59462396838985798</v>
       </c>
       <c r="V13" s="1">
